--- a/publipostage/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
+++ b/publipostage/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00461461</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>IATROREF III: a Multifaceted Program for Improving Quality of Care in Critically Ill Patients</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -519,36 +529,41 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>2012-005361-12</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>MEOPA (equimolar mixture of oxygen and protoxide of nitrogen) versus local anesthetic for analgesia during the biopsy of trophoblast. 
  MEOPA (mélange équimolaire d'oxygène et de protoxyde d'azote) versus anesthésie locale pour l'analgésie lors de la biopsie de trophoblaste.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>MELIBIO 
  MELIBIO</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -560,32 +575,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT02539173</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Diagnosis of Diaphragmatic Paralysis After Interscalene Block by Measuring the Inspiratory Diaphragmatic Thickening: Feasibility and Impact Observed</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>BBDDIAPHRAGM</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -597,32 +617,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT02169908</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT02060747</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LIPIDOXA, a Pilot Study of Analysis of Chronic Neuropathic Pain Markers in Patients Treated With Oxaliplatin-based Regimen</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>LIPIDOXA</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>OPTIPOST</t>
+        </is>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -634,32 +655,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT02573987</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT02169908</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MEOPA (Equimolar Mix of Oxygen and Nitrogen Monoxide) Versus Local Anesthesia for Analgesia During Chorionic Villus Sampling.</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MELIBIO</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
+          <t>LIPIDOXA, a Pilot Study of Analysis of Chronic Neuropathic Pain Markers in Patients Treated With Oxaliplatin-based Regimen</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>LIPIDOXA</t>
+        </is>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -671,28 +697,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT02060747</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT03304977</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>OPTIPOST</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
+          <t>Current Situation of the Patient's Knowledge on Their Anticoagulating and Anti Platelet Treatment in GHPSJ (St Joseph's Hospital)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -704,28 +735,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT03304977</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT02573987</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Current Situation of the Patient's Knowledge on Their Anticoagulating and Anti Platelet Treatment in GHPSJ (St Joseph's Hospital)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="b">
-        <v>0</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MEOPA (Equimolar Mix of Oxygen and Nitrogen Monoxide) Versus Local Anesthesia for Analgesia During Chorionic Villus Sampling.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>MELIBIO</t>
+        </is>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -737,28 +777,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT03307083</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Operating Check List During Consultation for Dental Implant</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -770,70 +815,76 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT02767583</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT02519725</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Assessment of the Prevalence of Small Fiber Peripheral Neuropathy Among Non-diabetic Obese Patients</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NEUROBISITE</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
+          <t>ICU Diaries Impact of an ICU Diary on the Psychological Well-being of the Patients and Their Relatives. Mixed Multicenter Randomized Study With Blind Evaluation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ICU-diary</t>
+        </is>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT02519725</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT03305601</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ICU Diaries Impact of an ICU Diary on the Psychological Well-being of the Patients and Their Relatives. Mixed Multicenter Randomized Study With Blind Evaluation</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ICU-diary</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
+          <t>Information During Maternity</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -844,99 +895,118 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>NCT03313973</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Impact of Myotensives Techniques, With and Without Auto-reeducation, on the Vital Capacity Forced by the Patient Affected by a Honeymoon Parkinson's Disease</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT02827916</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT02767583</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Exploration of Neuropathic Pain Induced by Oxaliplatin Electrophysiological Approach: Interest Using the SUDOSCAN® Machine</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CANALOXA</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
+          <t>Assessment of the Prevalence of Small Fiber Peripheral Neuropathy Among Non-diabetic Obese Patients</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NEUROBISITE</t>
+        </is>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT03305601</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT02827916</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Information During Maternity</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="b">
-        <v>0</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Exploration of Neuropathic Pain Induced by Oxaliplatin Electrophysiological Approach: Interest Using the SUDOSCAN® Machine</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>CANALOXA</t>
+        </is>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -947,28 +1017,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT03206294</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT02778828</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Presence of a Clinical Pharmacist in a Cardiology Department: What Impact on the Management of Diabetic Patients Within Care Pathways? Example of Inpatient Cardiac Patients at GHPSJ</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="b">
-        <v>0</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Determination of Pharmacokinetic and Therapeutic Adaptation of Linezolid in the Treatment of Multi-Resistant Tuberculosis MDR-TB</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>LINEZOLIDE</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -980,32 +1059,33 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT02778828</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT03206294</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Determination of Pharmacokinetic and Therapeutic Adaptation of Linezolid in the Treatment of Multi-Resistant Tuberculosis MDR-TB</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>LINEZOLIDE</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
+          <t>Presence of a Clinical Pharmacist in a Cardiology Department: What Impact on the Management of Diabetic Patients Within Care Pathways? Example of Inpatient Cardiac Patients at GHPSJ</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1017,32 +1097,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT02778321</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT02778334</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Prospective Study Evaluating the Interest of Long-term Cardiac Recording in Cerebral Infarction</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SPIDERFLASH</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>Links Between Depression, Anxiety, Coping and Quality of Life After a Stroke: Depressive and Anxiety Symptoms and Individual Coping Strategies of the Acute Phase in the Fourth Month as a Factor Influencing Mental Health and Quality of Life</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>COPING</t>
+        </is>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1054,28 +1139,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT03044340</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT02778321</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Vascular and Neurologic Exploration of Small Nervous Fiber by Sudoscanner</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="b">
-        <v>0</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Prospective Study Evaluating the Interest of Long-term Cardiac Recording in Cerebral Infarction</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>SPIDERFLASH</t>
+        </is>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1087,32 +1181,33 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT02778334</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NCT03069794</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Links Between Depression, Anxiety, Coping and Quality of Life After a Stroke: Depressive and Anxiety Symptoms and Individual Coping Strategies of the Acute Phase in the Fourth Month as a Factor Influencing Mental Health and Quality of Life</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>COPING</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
+          <t>Effect of Spinal Surgery on Stable Force Platform Parameters Estimating the Posture and the Balance of the Patients Reached of Spinal Pathologies</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1124,28 +1219,33 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT03069794</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT03044340</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Effect of Spinal Surgery on Stable Force Platform Parameters Estimating the Posture and the Balance of the Patients Reached of Spinal Pathologies</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Vascular and Neurologic Exploration of Small Nervous Fiber by Sudoscanner</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1157,247 +1257,278 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>NCT02474797</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Assessment of Diaphragmatic Function by Ultrasonographic Measure of Diaphragmatic Thickening in Severe Sepsis or Septic Shock Patients Hospitalized in ICU: Diaphragmatic Dysfunction Frequency, Prognosis Values and Associated Factors</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>US-Diamonds</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT03953625</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT04437277</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Interest of the Return to Primary Care of the "Low Back Booklet" of Health Insurance in the Recovery of Common Acute Low Back Pain</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="b">
-        <v>1</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Screening for Chronic Hepatitis C Virus in Hospitalized Patients at Saint Joseph Hospital in Marseille</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>DeViCHO</t>
+        </is>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT04437277</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT03953625</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Screening for Chronic Hepatitis C Virus in Hospitalized Patients at Saint Joseph Hospital in Marseille</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DeViCHO</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
+          <t>Interest of the Return to Primary Care of the "Low Back Booklet" of Health Insurance in the Recovery of Common Acute Low Back Pain</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT04543760</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT03641859</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Effect of Prone Positioning Combined With High Flow Oxygen Therapy on Oxygenation During Acute Respiratory Failure Due to Sars-covid-2: a Randomized Crossover Trial.</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DeCOPO</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+          <t>Evaluation of Pain and Anxiety in Patients With an Invasive Procedure in Emergencies: Randomized Trial</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>URGENCES_RV</t>
+        </is>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT03990142</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT03328559</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Study of Abnormalities of the Vegetative Nervous System in the Occurrence of Intradialytic Arterial Hypotension</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SUDHEMO</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
+          <t>Kinetics of Circulating Tumoral Cells in Bronchial Primitive Cancer</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT04118361</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT03903783</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Eye-ECG Approach to Emergencies : Diagnostic Performance of the HINTS Test Performed by Emergency Physicians to Distinguish a Central Cause From a Peripheral Cause of Isolated Acute Vestibular Syndrome</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="b">
-        <v>1</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Impact of Cefotaxime and Ceftriaxone on the Emergence and Carrying of Multidrug-Resistant Bacteria and Relationship to Residual Antibiotic Levels in Stool</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>CROCTX</t>
+        </is>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT03903783</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT04118361</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Impact of Cefotaxime and Ceftriaxone on the Emergence and Carrying of Multidrug-Resistant Bacteria and Relationship to Residual Antibiotic Levels in Stool</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CROCTX</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
+          <t>Eye-ECG Approach to Emergencies : Diagnostic Performance of the HINTS Test Performed by Emergency Physicians to Distinguish a Central Cause From a Peripheral Cause of Isolated Acute Vestibular Syndrome</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1408,32 +1539,33 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT03641859</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT03338738</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Evaluation of Pain and Anxiety in Patients With an Invasive Procedure in Emergencies: Randomized Trial</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>URGENCES_RV</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
+          <t>Impact of Beta-lactams on the Microbiota and Relative Fecal Abundance of Multidrug Resistant Bacteria Ans Its Importance on Infectious Episodes in Hospitalized Patients</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1445,28 +1577,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT03328559</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT04543760</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Kinetics of Circulating Tumoral Cells in Bronchial Primitive Cancer</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="b">
-        <v>0</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Effect of Prone Positioning Combined With High Flow Oxygen Therapy on Oxygenation During Acute Respiratory Failure Due to Sars-covid-2: a Randomized Crossover Trial.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>DeCOPO</t>
+        </is>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1478,28 +1619,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT03338738</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT03990142</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Impact of Beta-lactams on the Microbiota and Relative Fecal Abundance of Multidrug Resistant Bacteria Ans Its Importance on Infectious Episodes in Hospitalized Patients</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="b">
-        <v>1</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Study of Abnormalities of the Vegetative Nervous System in the Occurrence of Intradialytic Arterial Hypotension</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>SUDHEMO</t>
+        </is>
       </c>
       <c r="H30" t="b">
         <v>1</v>
       </c>
       <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1511,32 +1661,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>NCT04437719</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Longitudinal Prospective Cohort Study to Describe the Clinical Characteristics of COVID-19, the Acquired Immune Response and the Biological and Clinical Parameters of Patients Followed in Oncology by the Saint-Joseph Hospital Group, Paris, France for a Period of 6 Months During the COVID-19 Pandemic in 2020</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>OBVIONCO</t>
         </is>
       </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
       <c r="H31" t="b">
         <v>1</v>
       </c>
       <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1548,32 +1703,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>NCT04488484</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Medical and Serological Follow-up of the Staff of the Paris Saint-Joseph Hospital Group</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>PERSO-COVID</t>
         </is>
       </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
       <c r="H32" t="b">
         <v>1</v>
       </c>
       <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1585,32 +1745,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT04313855</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT05515718</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Help With Early Detection of Postoperative Neuropathic Pain Using SMS After Ambulatory Surgery</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SMS DPpostop</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
+          <t>Effect of the Early Ultrasound-guided Femoral Nerve Block Performed by Emergency Physicians on Pre-operative Opioids Usage in Patients With Proximal Femoral Fractures: a Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FORELEG</t>
+        </is>
       </c>
       <c r="H33" t="b">
         <v>1</v>
       </c>
       <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1622,32 +1787,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT05515718</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT04785898</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Effect of the Early Ultrasound-guided Femoral Nerve Block Performed by Emergency Physicians on Pre-operative Opioids Usage in Patients With Proximal Femoral Fractures: a Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FORELEG</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
+          <t>Diagnostic Performance of the ID Now™ COVID-19 Screening Test Versus Simplexa™ COVID-19 Direct Assay in Off-site Biology in Emergency Rooms for COVID-19 Screenin</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>COVID-IDNow</t>
+        </is>
       </c>
       <c r="H34" t="b">
         <v>1</v>
       </c>
       <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1659,32 +1829,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT04785898</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT04313855</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Diagnostic Performance of the ID Now™ COVID-19 Screening Test Versus Simplexa™ COVID-19 Direct Assay in Off-site Biology in Emergency Rooms for COVID-19 Screenin</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>COVID-IDNow</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
+          <t>Help With Early Detection of Postoperative Neuropathic Pain Using SMS After Ambulatory Surgery</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>SMS DPpostop</t>
+        </is>
       </c>
       <c r="H35" t="b">
         <v>1</v>
       </c>
       <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1696,32 +1871,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT04848389</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT03884855</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Optimization of the Nursing Time After the Use of Tissue Adhesives During the Chest Port Placement on Patients Treated With Chemotherapy, a Randomized Trial Versus Sutures</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PAC_COLLE</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+          <t>Randomised Controlled Trial to Evaluate the Benefit of Traditional Karate in Heart Failure During Cardiac Rehabilitation</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>KAREAD</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1733,32 +1913,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT03884855</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT04848389</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Randomised Controlled Trial to Evaluate the Benefit of Traditional Karate in Heart Failure During Cardiac Rehabilitation</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>KAREAD</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+          <t>Optimization of the Nursing Time After the Use of Tissue Adhesives During the Chest Port Placement on Patients Treated With Chemotherapy, a Randomized Trial Versus Sutures</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>PAC_COLLE</t>
+        </is>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1770,32 +1955,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT03967704</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT04805489</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Optimization of Follow-up of Patients With Symptomatic Recent Osteoporotic Vertebral Fracture</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>OPTIVERT</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
+          <t>Comparison of Hemodynamic and Respiratory Parameters During Physical Activity Without Mask, With Surgical Mask and General Public</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>PAM</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>1</v>
       </c>
       <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1807,32 +1997,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>NCT04569266</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Effectiveness of an Exercise Re-training Program on Dyspnea in Patients After Acute Respiratory Distress Syndrome Secondary to Severe COVID-19 Pneumonia in Post-ICU</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>RECOVER</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
       <c r="H39" t="b">
         <v>1</v>
       </c>
       <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1844,32 +2039,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT04805489</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT03967704</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Comparison of Hemodynamic and Respiratory Parameters During Physical Activity Without Mask, With Surgical Mask and General Public</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>PAM</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
+          <t>Optimization of Follow-up of Patients With Symptomatic Recent Osteoporotic Vertebral Fracture</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>OPTIVERT</t>
+        </is>
       </c>
       <c r="H40" t="b">
         <v>1</v>
       </c>
       <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1881,28 +2081,33 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>NCT04672642</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Evaluation of the SpyGlass DS vs Standard Method for Detection of Residual Pancreatic Calculations After Endoscopic Treatment</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
+++ b/publipostage/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -566,6 +576,7 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -608,6 +619,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -646,6 +662,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -688,6 +709,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -726,6 +752,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -768,6 +799,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -806,6 +842,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -848,6 +889,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -886,6 +932,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -924,6 +975,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -966,6 +1022,11 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1008,6 +1069,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1050,6 +1116,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1088,6 +1159,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1130,6 +1206,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1172,6 +1253,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1210,6 +1296,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1248,6 +1339,11 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1290,6 +1386,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1332,6 +1433,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1370,6 +1476,11 @@
       <c r="J23" t="b">
         <v>1</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1412,6 +1523,11 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1450,6 +1566,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1492,6 +1613,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1530,6 +1656,11 @@
       <c r="J27" t="b">
         <v>1</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1568,6 +1699,11 @@
       <c r="J28" t="b">
         <v>1</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1610,6 +1746,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1652,6 +1793,11 @@
       <c r="J30" t="b">
         <v>1</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1694,6 +1840,11 @@
       <c r="J31" t="b">
         <v>1</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1736,6 +1887,11 @@
       <c r="J32" t="b">
         <v>1</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1778,6 +1934,11 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1820,6 +1981,11 @@
       <c r="J34" t="b">
         <v>1</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1862,6 +2028,11 @@
       <c r="J35" t="b">
         <v>1</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1904,6 +2075,11 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1946,6 +2122,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1988,6 +2169,11 @@
       <c r="J38" t="b">
         <v>1</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2030,6 +2216,11 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2072,6 +2263,11 @@
       <c r="J40" t="b">
         <v>1</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2109,6 +2305,11 @@
       </c>
       <c r="J41" t="b">
         <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
   </sheetData>
